--- a/data/output/set50/high_noisy_25/results/psnr.xlsx
+++ b/data/output/set50/high_noisy_25/results/psnr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\high_noisy_25\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\set50\high_noisy_25\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807969AB-F554-4983-A55D-70957CD3EB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA6CCAE-63BD-4CC8-87BD-75C6770902F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>psnr_nlm</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>psnr_bm3d</t>
+  </si>
+  <si>
+    <t>psnr_dual</t>
   </si>
 </sst>
 </file>
@@ -414,576 +417,729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>21.194902620000001</v>
+      </c>
+      <c r="B2" s="2">
         <v>30.09910356</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>30.316858589999999</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>32.478322589999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>21.287677120000001</v>
+      </c>
+      <c r="B3" s="2">
         <v>28.283569490000001</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>28.959995070000002</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>30.600868630000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20.7263448</v>
+      </c>
+      <c r="B4" s="2">
         <v>27.906906509999999</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>27.973970520000002</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>29.819560979999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20.983519600000001</v>
+      </c>
+      <c r="B5" s="2">
         <v>28.036837210000002</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>28.347716890000001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>29.833105069999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20.637257529999999</v>
+      </c>
+      <c r="B6" s="2">
         <v>27.858015850000001</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>27.810840039999999</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>29.645897349999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20.70671334</v>
+      </c>
+      <c r="B7" s="2">
         <v>27.97694675</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>27.97677054</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>30.16447264</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20.958447379999999</v>
+      </c>
+      <c r="B8" s="2">
         <v>26.23288891</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>26.876396270000001</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>28.237333929999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>21.76943391</v>
+      </c>
+      <c r="B9" s="2">
         <v>25.385733869999999</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>26.335799810000001</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>27.062293449999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>21.42930175</v>
+      </c>
+      <c r="B10" s="2">
         <v>27.56881504</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>28.020385409999999</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>29.466383789999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20.899584529999998</v>
+      </c>
+      <c r="B11" s="2">
         <v>26.342672279999999</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>26.698815150000001</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>27.682232989999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>20.993055510000001</v>
+      </c>
+      <c r="B12" s="2">
         <v>29.18995043</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>29.664916730000002</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>31.543686900000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>22.564463790000001</v>
+      </c>
+      <c r="B13" s="2">
         <v>26.0612955</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>26.704066059999999</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>27.388545180000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>21.499479409999999</v>
+      </c>
+      <c r="B14" s="2">
         <v>26.449897419999999</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>27.048269139999999</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>27.915954020000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20.955718539999999</v>
+      </c>
+      <c r="B15" s="2">
         <v>27.38872448</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>27.980762290000001</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>29.640981849999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20.753578789999999</v>
+      </c>
+      <c r="B16" s="2">
         <v>23.021088519999999</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>23.903391989999999</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>24.018344469999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20.740160700000001</v>
+      </c>
+      <c r="B17" s="2">
         <v>24.608470480000001</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="2">
         <v>25.267524510000001</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>26.095516329999999</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20.992028510000001</v>
+      </c>
+      <c r="B18" s="2">
         <v>23.294080449999999</v>
       </c>
-      <c r="B18" s="2">
+      <c r="C18" s="2">
         <v>24.174976050000001</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>24.145095080000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>21.778921100000002</v>
+      </c>
+      <c r="B19" s="2">
         <v>23.871750559999999</v>
       </c>
-      <c r="B19" s="2">
+      <c r="C19" s="2">
         <v>25.34079084</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>25.824277519999999</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21.403762740000001</v>
+      </c>
+      <c r="B20" s="2">
         <v>23.64767453</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C20" s="2">
         <v>24.557947500000001</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>24.030934139999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21.6474802</v>
+      </c>
+      <c r="B21" s="2">
         <v>26.27249381</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C21" s="2">
         <v>27.162688330000002</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>28.256624469999998</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20.829105970000001</v>
+      </c>
+      <c r="B22" s="2">
         <v>25.206882839999999</v>
       </c>
-      <c r="B22" s="2">
+      <c r="C22" s="2">
         <v>25.853036100000001</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>26.723021719999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20.663666299999999</v>
+      </c>
+      <c r="B23" s="2">
         <v>27.874257589999999</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C23" s="2">
         <v>27.825555009999999</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>29.272443760000002</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20.575598880000001</v>
+      </c>
+      <c r="B24" s="2">
         <v>26.409312910000001</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C24" s="2">
         <v>26.373663090000001</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>26.454587620000002</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20.704596890000001</v>
+      </c>
+      <c r="B25" s="2">
         <v>31.03569882</v>
       </c>
-      <c r="B25" s="2">
+      <c r="C25" s="2">
         <v>30.972094779999999</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>33.336486960000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20.75212879</v>
+      </c>
+      <c r="B26" s="2">
         <v>28.76975053</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C26" s="2">
         <v>28.646766150000001</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>30.438282690000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20.673742650000001</v>
+      </c>
+      <c r="B27" s="2">
         <v>30.26944786</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C27" s="2">
         <v>30.14617646</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>32.727799529999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20.580951779999999</v>
+      </c>
+      <c r="B28" s="2">
         <v>29.02764664</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C28" s="2">
         <v>28.59792036</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>30.6779625</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20.871496459999999</v>
+      </c>
+      <c r="B29" s="2">
         <v>30.45093795</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C29" s="2">
         <v>30.327739340000001</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" s="2">
         <v>32.282518760000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>20.658290900000001</v>
+      </c>
+      <c r="B30" s="2">
         <v>28.789047589999999</v>
       </c>
-      <c r="B30" s="2">
+      <c r="C30" s="2">
         <v>28.56830635</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>30.479147399999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>21.116709839999999</v>
+      </c>
+      <c r="B31" s="2">
         <v>23.555786390000002</v>
       </c>
-      <c r="B31" s="2">
+      <c r="C31" s="2">
         <v>24.805708689999999</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>24.93489465</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>21.094653350000002</v>
+      </c>
+      <c r="B32" s="2">
         <v>26.083865549999999</v>
       </c>
-      <c r="B32" s="2">
+      <c r="C32" s="2">
         <v>26.769765849999999</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>27.914347459999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>21.151011669999999</v>
+      </c>
+      <c r="B33" s="2">
         <v>22.85252281</v>
       </c>
-      <c r="B33" s="2">
+      <c r="C33" s="2">
         <v>23.655791019999999</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>23.288601750000002</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>21.73937192</v>
+      </c>
+      <c r="B34" s="2">
         <v>24.925310570000001</v>
       </c>
-      <c r="B34" s="2">
+      <c r="C34" s="2">
         <v>25.91432228</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D34" s="2">
         <v>26.472287699999999</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20.93514442</v>
+      </c>
+      <c r="B35" s="2">
         <v>26.56891311</v>
       </c>
-      <c r="B35" s="2">
+      <c r="C35" s="2">
         <v>26.957233800000001</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" s="2">
         <v>28.257315899999998</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20.982687590000001</v>
+      </c>
+      <c r="B36" s="2">
         <v>25.511076330000002</v>
       </c>
-      <c r="B36" s="2">
+      <c r="C36" s="2">
         <v>26.31850098</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" s="2">
         <v>27.32941975</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20.789221210000001</v>
+      </c>
+      <c r="B37" s="2">
         <v>28.258880619999999</v>
       </c>
-      <c r="B37" s="2">
+      <c r="C37" s="2">
         <v>28.538067460000001</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D37" s="2">
         <v>29.942278200000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>21.30173443</v>
+      </c>
+      <c r="B38" s="2">
         <v>25.426337920000002</v>
       </c>
-      <c r="B38" s="2">
+      <c r="C38" s="2">
         <v>26.73761661</v>
       </c>
-      <c r="C38" s="2">
+      <c r="D38" s="2">
         <v>27.928943029999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>20.583187729999999</v>
+      </c>
+      <c r="B39" s="2">
         <v>26.52985129</v>
       </c>
-      <c r="B39" s="2">
+      <c r="C39" s="2">
         <v>26.39656549</v>
       </c>
-      <c r="C39" s="2">
+      <c r="D39" s="2">
         <v>27.5991739</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>20.625973590000001</v>
+      </c>
+      <c r="B40" s="2">
         <v>28.084887989999999</v>
       </c>
-      <c r="B40" s="2">
+      <c r="C40" s="2">
         <v>28.098373120000002</v>
       </c>
-      <c r="C40" s="2">
+      <c r="D40" s="2">
         <v>29.974711670000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20.654913400000002</v>
+      </c>
+      <c r="B41" s="2">
         <v>30.228739789999999</v>
       </c>
-      <c r="B41" s="2">
+      <c r="C41" s="2">
         <v>29.662226860000001</v>
       </c>
-      <c r="C41" s="2">
+      <c r="D41" s="2">
         <v>31.427990810000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>20.501595630000001</v>
+      </c>
+      <c r="B42" s="2">
         <v>29.832078899999999</v>
       </c>
-      <c r="B42" s="2">
+      <c r="C42" s="2">
         <v>29.224687419999999</v>
       </c>
-      <c r="C42" s="2">
+      <c r="D42" s="2">
         <v>31.58771097</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20.855921429999999</v>
+      </c>
+      <c r="B43" s="2">
         <v>27.171027330000001</v>
       </c>
-      <c r="B43" s="2">
+      <c r="C43" s="2">
         <v>27.894411590000001</v>
       </c>
-      <c r="C43" s="2">
+      <c r="D43" s="2">
         <v>29.612908619999999</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20.795884709999999</v>
+      </c>
+      <c r="B44" s="2">
         <v>27.33324013</v>
       </c>
-      <c r="B44" s="2">
+      <c r="C44" s="2">
         <v>27.845582570000001</v>
       </c>
-      <c r="C44" s="2">
+      <c r="D44" s="2">
         <v>27.93639177</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>21.025787269999999</v>
+      </c>
+      <c r="B45" s="2">
         <v>27.602011040000001</v>
       </c>
-      <c r="B45" s="2">
+      <c r="C45" s="2">
         <v>28.348244090000001</v>
       </c>
-      <c r="C45" s="2">
+      <c r="D45" s="2">
         <v>29.907868390000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>20.81245453</v>
+      </c>
+      <c r="B46" s="2">
         <v>21.19109727</v>
       </c>
-      <c r="B46" s="2">
+      <c r="C46" s="2">
         <v>22.01253758</v>
       </c>
-      <c r="C46" s="2">
+      <c r="D46" s="2">
         <v>19.99650428</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>20.97842696</v>
+      </c>
+      <c r="B47" s="2">
         <v>27.121997069999999</v>
       </c>
-      <c r="B47" s="2">
+      <c r="C47" s="2">
         <v>27.76250031</v>
       </c>
-      <c r="C47" s="2">
+      <c r="D47" s="2">
         <v>29.086503700000002</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>20.898822240000001</v>
+      </c>
+      <c r="B48" s="2">
         <v>24.52678208</v>
       </c>
-      <c r="B48" s="2">
+      <c r="C48" s="2">
         <v>25.39408779</v>
       </c>
-      <c r="C48" s="2">
+      <c r="D48" s="2">
         <v>25.998566740000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>20.69582106</v>
+      </c>
+      <c r="B49" s="2">
         <v>23.820515700000001</v>
       </c>
-      <c r="B49" s="2">
+      <c r="C49" s="2">
         <v>24.8619181</v>
       </c>
-      <c r="C49" s="2">
+      <c r="D49" s="2">
         <v>25.28773996</v>
       </c>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>20.940614369999999</v>
+      </c>
+      <c r="B50" s="2">
         <v>28.320819230000001</v>
       </c>
-      <c r="B50" s="2">
+      <c r="C50" s="2">
         <v>28.84913718</v>
       </c>
-      <c r="C50" s="2">
+      <c r="D50" s="2">
         <v>30.63697161</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>21.228960499999999</v>
+      </c>
+      <c r="B51" s="2">
         <v>24.63575595</v>
       </c>
-      <c r="B51" s="2">
+      <c r="C51" s="2">
         <v>25.069938820000001</v>
       </c>
-      <c r="C51" s="2">
+      <c r="D51" s="2">
         <v>24.279625710000001</v>
       </c>
     </row>
